--- a/test/source.xlsx
+++ b/test/source.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="496">
   <si>
-    <t>Generated from folder d:\yunfeng\nstring\convert\test\en-US</t>
+    <t>Generated from folder /home/yunfeng/dev/github_code/res_convertor/test/en-US</t>
   </si>
   <si>
     <t>Account</t>
@@ -61,16 +61,16 @@
     <t>music</t>
   </si>
   <si>
-    <t>music_90a6a2d7</t>
+    <t>music_98287f3d</t>
   </si>
   <si>
     <t>Music</t>
   </si>
   <si>
-    <t>apps\music\music.properties</t>
-  </si>
-  <si>
-    <t>mix_6bbe30d0</t>
+    <t>apps/music/music.properties</t>
+  </si>
+  <si>
+    <t>mix_03ea25ef</t>
   </si>
   <si>
     <t>Mix</t>
@@ -79,7 +79,7 @@
     <t>mix</t>
   </si>
   <si>
-    <t>playlists_d61906ca</t>
+    <t>playlists_2376613f</t>
   </si>
   <si>
     <t>Playlist</t>
@@ -88,7 +88,7 @@
     <t>playlists</t>
   </si>
   <si>
-    <t>artists_6e686b45</t>
+    <t>artists_f63e6d24</t>
   </si>
   <si>
     <t>Artists</t>
@@ -97,7 +97,7 @@
     <t>artists</t>
   </si>
   <si>
-    <t>albums_520dc8b3</t>
+    <t>albums_a8b166a7</t>
   </si>
   <si>
     <t>Albums</t>
@@ -106,7 +106,7 @@
     <t>albums</t>
   </si>
   <si>
-    <t>songs_bf96330b</t>
+    <t>songs_437928a6</t>
   </si>
   <si>
     <t>Songs</t>
@@ -115,7 +115,7 @@
     <t>songs</t>
   </si>
   <si>
-    <t>more_8109c306</t>
+    <t>more_87cde996</t>
   </si>
   <si>
     <t>More</t>
@@ -124,7 +124,7 @@
     <t>more</t>
   </si>
   <si>
-    <t>songName_73f2248b</t>
+    <t>songName_a5a66637</t>
   </si>
   <si>
     <t>Song name</t>
@@ -133,7 +133,7 @@
     <t>songName</t>
   </si>
   <si>
-    <t>songArtist_a8234b4f</t>
+    <t>songArtist_76c499ae</t>
   </si>
   <si>
     <t>Song artist</t>
@@ -142,7 +142,7 @@
     <t>songArtist</t>
   </si>
   <si>
-    <t>songAlbum_a26d0d69</t>
+    <t>songAlbum_5ff5da3d</t>
   </si>
   <si>
     <t>Song album</t>
@@ -151,7 +151,7 @@
     <t>songAlbum</t>
   </si>
   <si>
-    <t>unknownArtist_2454889b</t>
+    <t>unknownArtist_24b753ad</t>
   </si>
   <si>
     <t>Unknown artist</t>
@@ -160,7 +160,7 @@
     <t>unknownArtist</t>
   </si>
   <si>
-    <t>unknownAlbum_edba165d</t>
+    <t>unknownAlbum_31520c7c</t>
   </si>
   <si>
     <t>Unknown album</t>
@@ -169,7 +169,7 @@
     <t>unknownAlbum</t>
   </si>
   <si>
-    <t>unknownTitle_8fcb5bc6</t>
+    <t>unknownTitle_3f3ecd07</t>
   </si>
   <si>
     <t>Unknown title</t>
@@ -178,7 +178,7 @@
     <t>unknownTitle</t>
   </si>
   <si>
-    <t>empty-title_afa99b05</t>
+    <t>empty-title_ab6aa051</t>
   </si>
   <si>
     <t>Add songs to get started</t>
@@ -187,7 +187,7 @@
     <t>empty-title</t>
   </si>
   <si>
-    <t>empty-text_d8e381c4</t>
+    <t>empty-text_fc709033</t>
   </si>
   <si>
     <t>Music library is empty. Add songs to storage to get started.</t>
@@ -196,7 +196,7 @@
     <t>empty-text</t>
   </si>
   <si>
-    <t>nocard2-title_a4ed7c87</t>
+    <t>nocard2-title_67d4b4d1</t>
   </si>
   <si>
     <t>No memory card found</t>
@@ -205,7 +205,7 @@
     <t>nocard2-title</t>
   </si>
   <si>
-    <t>nocard3-text_f4691f1a</t>
+    <t>nocard3-text_9978fbbd</t>
   </si>
   <si>
     <t>Memory card is not found. Insert a memory card to get started.</t>
@@ -214,7 +214,7 @@
     <t>nocard3-text</t>
   </si>
   <si>
-    <t>pluggedin-title_5574d423</t>
+    <t>pluggedin-title_2f038409</t>
   </si>
   <si>
     <t>Music can not be used while phone is plugged in</t>
@@ -223,7 +223,7 @@
     <t>pluggedin-title</t>
   </si>
   <si>
-    <t>pluggedin-text_539e7f8e</t>
+    <t>pluggedin-text_8e277331</t>
   </si>
   <si>
     <t>Storage is currently in use. please unplug the phone to use this app.</t>
@@ -232,7 +232,7 @@
     <t>pluggedin-text</t>
   </si>
   <si>
-    <t>upgrade-title_7457e7a6</t>
+    <t>upgrade-title_5bb334b6</t>
   </si>
   <si>
     <t>Database Upgrade</t>
@@ -241,7 +241,7 @@
     <t>upgrade-title</t>
   </si>
   <si>
-    <t>upgrade-text_1ba24594</t>
+    <t>upgrade-text_b4da1ca6</t>
   </si>
   <si>
     <t>Please wait while Music updates its database.</t>
@@ -250,7 +250,7 @@
     <t>upgrade-text</t>
   </si>
   <si>
-    <t>search-music.placeholder_df94acf1</t>
+    <t>search-music.placeholder_140cbce0</t>
   </si>
   <si>
     <t>Search</t>
@@ -259,7 +259,7 @@
     <t>search-music.placeholder</t>
   </si>
   <si>
-    <t>search-cancel_48ee8c6d</t>
+    <t>search-cancel_e91f5a3f</t>
   </si>
   <si>
     <t>Cancel</t>
@@ -268,19 +268,19 @@
     <t>search-cancel</t>
   </si>
   <si>
-    <t>search-artists_43ed6565</t>
+    <t>search-artists_8ff97422</t>
   </si>
   <si>
     <t>search-artists</t>
   </si>
   <si>
-    <t>search-albums_fa1bd93a</t>
+    <t>search-albums_03ec16d8</t>
   </si>
   <si>
     <t>search-albums</t>
   </si>
   <si>
-    <t>search-titles_990a6faa</t>
+    <t>search-titles_b25cc5d9</t>
   </si>
   <si>
     <t>Tracks</t>
@@ -289,7 +289,7 @@
     <t>search-titles</t>
   </si>
   <si>
-    <t>search-close_4b460b55</t>
+    <t>search-close_8eba5ba7</t>
   </si>
   <si>
     <t>close</t>
@@ -298,7 +298,7 @@
     <t>search-close</t>
   </si>
   <si>
-    <t>search-no-result_e4757e67</t>
+    <t>search-no-result_282066cf</t>
   </si>
   <si>
     <t>No tracks found</t>
@@ -307,7 +307,7 @@
     <t>search-no-result</t>
   </si>
   <si>
-    <t>artists-search-no-result_34a26fbc</t>
+    <t>artists-search-no-result_ef290b86</t>
   </si>
   <si>
     <t>No artists found</t>
@@ -316,7 +316,7 @@
     <t>artists-search-no-result</t>
   </si>
   <si>
-    <t>albums-search-no-result_332941c5</t>
+    <t>albums-search-no-result_d85d4a50</t>
   </si>
   <si>
     <t>No albums found</t>
@@ -325,7 +325,7 @@
     <t>albums-search-no-result</t>
   </si>
   <si>
-    <t>playlists-shuffle-all_f357d97a</t>
+    <t>playlists-shuffle-all_9773d150</t>
   </si>
   <si>
     <t>Shuffle all</t>
@@ -334,7 +334,7 @@
     <t>playlists-shuffle-all</t>
   </si>
   <si>
-    <t>playlists-recently-added_7277d675</t>
+    <t>playlists-recently-added_df302ea4</t>
   </si>
   <si>
     <t>Recently added</t>
@@ -343,7 +343,7 @@
     <t>playlists-recently-added</t>
   </si>
   <si>
-    <t>playlists-most-played_1578ac2a</t>
+    <t>playlists-most-played_4651e98d</t>
   </si>
   <si>
     <t>Most played</t>
@@ -352,7 +352,7 @@
     <t>playlists-most-played</t>
   </si>
   <si>
-    <t>playlists-least-played_43f49c7f</t>
+    <t>playlists-least-played_11010542</t>
   </si>
   <si>
     <t>Least played</t>
@@ -361,7 +361,7 @@
     <t>playlists-least-played</t>
   </si>
   <si>
-    <t>playlists-highest-rated_ccd53c7e</t>
+    <t>playlists-highest-rated_5c4637b4</t>
   </si>
   <si>
     <t>Highest Rated</t>
@@ -370,7 +370,7 @@
     <t>playlists-highest-rated</t>
   </si>
   <si>
-    <t>picker-title_ee5c104f</t>
+    <t>picker-title_d4da2698</t>
   </si>
   <si>
     <t>Select a track</t>
@@ -379,7 +379,7 @@
     <t>picker-title</t>
   </si>
   <si>
-    <t>save_e7de76d2</t>
+    <t>save_32dae1c2</t>
   </si>
   <si>
     <t>Save</t>
@@ -388,7 +388,7 @@
     <t>save</t>
   </si>
   <si>
-    <t>saved_0adb3745</t>
+    <t>saved_238cba1e</t>
   </si>
   <si>
     <t>saved to Music library.</t>
@@ -397,7 +397,7 @@
     <t>saved</t>
   </si>
   <si>
-    <t>audioinvalid_b5f40727</t>
+    <t>audioinvalid_91de0de9</t>
   </si>
   <si>
     <t>Audio cannot be played: format is unsupported or file is invalid.</t>
@@ -406,13 +406,13 @@
     <t>audioinvalid</t>
   </si>
   <si>
-    <t>overlay-cancel-button_ed655f5a</t>
+    <t>overlay-cancel-button_8babe15e</t>
   </si>
   <si>
     <t>overlay-cancel-button</t>
   </si>
   <si>
-    <t>music-paused-notification_e587e093</t>
+    <t>music-paused-notification_a6d5048a</t>
   </si>
   <si>
     <t>Music paused during the call</t>
@@ -421,7 +421,7 @@
     <t>music-paused-notification</t>
   </si>
   <si>
-    <t>done_9ef58c29</t>
+    <t>done_7fd26f4b</t>
   </si>
   <si>
     <t>Done</t>
@@ -430,7 +430,7 @@
     <t>done</t>
   </si>
   <si>
-    <t>share-song.ariaLabel_e67c877d</t>
+    <t>share-song.ariaLabel_05fea7e5</t>
   </si>
   <si>
     <t>Share</t>
@@ -439,7 +439,7 @@
     <t>share-song.ariaLabel</t>
   </si>
   <si>
-    <t>player-album-rating.ariaLabel_5701b313</t>
+    <t>player-album-rating.ariaLabel_96b9abd8</t>
   </si>
   <si>
     <t>Rating</t>
@@ -448,7 +448,7 @@
     <t>player-album-rating.ariaLabel</t>
   </si>
   <si>
-    <t>rating-star.ariaLabel_30cd3b80</t>
+    <t>rating-star.ariaLabel_9d7fa596</t>
   </si>
   <si>
     <t>{[ plural(n) ]}</t>
@@ -457,7 +457,7 @@
     <t>rating-star.ariaLabel</t>
   </si>
   <si>
-    <t>rating-star.ariaLabel[zero]_a44517fc</t>
+    <t>rating-star.ariaLabel[zero]_3977ca56</t>
   </si>
   <si>
     <t>{{n}} stars</t>
@@ -466,7 +466,7 @@
     <t>rating-star.ariaLabel[zero]</t>
   </si>
   <si>
-    <t>rating-star.ariaLabel[one]_3998903a</t>
+    <t>rating-star.ariaLabel[one]_6e2df7cf</t>
   </si>
   <si>
     <t>{{n}} star</t>
@@ -475,31 +475,31 @@
     <t>rating-star.ariaLabel[one]</t>
   </si>
   <si>
-    <t>rating-star.ariaLabel[two]_f1c814f9</t>
+    <t>rating-star.ariaLabel[two]_076f14bf</t>
   </si>
   <si>
     <t>rating-star.ariaLabel[two]</t>
   </si>
   <si>
-    <t>rating-star.ariaLabel[few]_8327243c</t>
+    <t>rating-star.ariaLabel[few]_c261a5fe</t>
   </si>
   <si>
     <t>rating-star.ariaLabel[few]</t>
   </si>
   <si>
-    <t>rating-star.ariaLabel[many]_a44e67a8</t>
+    <t>rating-star.ariaLabel[many]_d875d204</t>
   </si>
   <si>
     <t>rating-star.ariaLabel[many]</t>
   </si>
   <si>
-    <t>rating-star.ariaLabel[other]_0d4d8835</t>
+    <t>rating-star.ariaLabel[other]_4f1bfa6c</t>
   </si>
   <si>
     <t>rating-star.ariaLabel[other]</t>
   </si>
   <si>
-    <t>go-to-player-view.ariaLabel_4a732c34</t>
+    <t>go-to-player-view.ariaLabel_f6778651</t>
   </si>
   <si>
     <t>Go to player view</t>
@@ -508,7 +508,7 @@
     <t>go-to-player-view.ariaLabel</t>
   </si>
   <si>
-    <t>repeat-off.ariaLabel_b14b5795</t>
+    <t>repeat-off.ariaLabel_0bd00e21</t>
   </si>
   <si>
     <t>Repeat off</t>
@@ -517,7 +517,7 @@
     <t>repeat-off.ariaLabel</t>
   </si>
   <si>
-    <t>repeat-list.ariaLabel_8a9cee86</t>
+    <t>repeat-list.ariaLabel_7e674ef6</t>
   </si>
   <si>
     <t>Repeat all</t>
@@ -526,7 +526,7 @@
     <t>repeat-list.ariaLabel</t>
   </si>
   <si>
-    <t>repeat-song.ariaLabel_19097ef5</t>
+    <t>repeat-song.ariaLabel_a72627de</t>
   </si>
   <si>
     <t>Repeat track</t>
@@ -535,7 +535,7 @@
     <t>repeat-song.ariaLabel</t>
   </si>
   <si>
-    <t>shuffle-toggle.ariaLabel_40674975</t>
+    <t>shuffle-toggle.ariaLabel_8c97a6b9</t>
   </si>
   <si>
     <t>Shuffle</t>
@@ -544,13 +544,13 @@
     <t>shuffle-toggle.ariaLabel</t>
   </si>
   <si>
-    <t>mix-tab.ariaLabel_6e1e2000</t>
+    <t>mix-tab.ariaLabel_1a2eee69</t>
   </si>
   <si>
     <t>mix-tab.ariaLabel</t>
   </si>
   <si>
-    <t>playlists-tab.ariaLabel_4723c801</t>
+    <t>playlists-tab.ariaLabel_294bf4c1</t>
   </si>
   <si>
     <t>Playlists</t>
@@ -559,25 +559,25 @@
     <t>playlists-tab.ariaLabel</t>
   </si>
   <si>
-    <t>artists-tab.ariaLabel_ef7dfdb5</t>
+    <t>artists-tab.ariaLabel_8f3cfadb</t>
   </si>
   <si>
     <t>artists-tab.ariaLabel</t>
   </si>
   <si>
-    <t>albums-tab.ariaLabel_f8f97281</t>
+    <t>albums-tab.ariaLabel_20d15b14</t>
   </si>
   <si>
     <t>albums-tab.ariaLabel</t>
   </si>
   <si>
-    <t>songs-tab.ariaLabel_397f9fce</t>
+    <t>songs-tab.ariaLabel_faf647bb</t>
   </si>
   <si>
     <t>songs-tab.ariaLabel</t>
   </si>
   <si>
-    <t>check_54e994f9</t>
+    <t>check_4c715c81</t>
   </si>
   <si>
     <t>Select</t>
@@ -586,7 +586,7 @@
     <t>check</t>
   </si>
   <si>
-    <t>remove-track_bfd75a16</t>
+    <t>remove-track_43cb85bd</t>
   </si>
   <si>
     <t>Delete Track</t>
@@ -595,7 +595,7 @@
     <t>remove-track</t>
   </si>
   <si>
-    <t>remove-tracks_3cdd7d49</t>
+    <t>remove-tracks_1e0ce69d</t>
   </si>
   <si>
     <t>Delete Tracks</t>
@@ -604,13 +604,13 @@
     <t>remove-tracks</t>
   </si>
   <si>
-    <t>cancel_0c2f5724</t>
+    <t>cancel_6411e00d</t>
   </si>
   <si>
     <t>cancel</t>
   </si>
   <si>
-    <t>delete_36402d92</t>
+    <t>delete_41335778</t>
   </si>
   <si>
     <t>Delete</t>
@@ -619,13 +619,13 @@
     <t>delete</t>
   </si>
   <si>
-    <t>song-num-checked_06ced226</t>
+    <t>song-num-checked_268ed309</t>
   </si>
   <si>
     <t>song-num-checked</t>
   </si>
   <si>
-    <t>song-num-checked[zero]_9d4ced09</t>
+    <t>song-num-checked[zero]_f7c74012</t>
   </si>
   <si>
     <t>0 selected</t>
@@ -634,7 +634,7 @@
     <t>song-num-checked[zero]</t>
   </si>
   <si>
-    <t>song-num-checked[one]_600ac860</t>
+    <t>song-num-checked[one]_038d5b81</t>
   </si>
   <si>
     <t>{{ n }} selected</t>
@@ -643,37 +643,37 @@
     <t>song-num-checked[one]</t>
   </si>
   <si>
-    <t>song-num-checked[two]_1cd13a11</t>
+    <t>song-num-checked[two]_efe0390b</t>
   </si>
   <si>
     <t>song-num-checked[two]</t>
   </si>
   <si>
-    <t>song-num-checked[few]_6bd0efe2</t>
+    <t>song-num-checked[few]_770dcfc3</t>
   </si>
   <si>
     <t>song-num-checked[few]</t>
   </si>
   <si>
-    <t>song-num-checked[many]_c8e3a475</t>
+    <t>song-num-checked[many]_21ff5f95</t>
   </si>
   <si>
     <t>song-num-checked[many]</t>
   </si>
   <si>
-    <t>song-num-checked[other]_534586fd</t>
+    <t>song-num-checked[other]_d5b0b3e5</t>
   </si>
   <si>
     <t>song-num-checked[other]</t>
   </si>
   <si>
-    <t>delete-playlist-songs_14e6ba64</t>
+    <t>delete-playlist-songs_f241a740</t>
   </si>
   <si>
     <t>delete-playlist-songs</t>
   </si>
   <si>
-    <t>delete-playlist-songs[zero]_01a78381</t>
+    <t>delete-playlist-songs[zero]_1067cff7</t>
   </si>
   <si>
     <t>Nothing selected</t>
@@ -682,7 +682,7 @@
     <t>delete-playlist-songs[zero]</t>
   </si>
   <si>
-    <t>delete-playlist-songs[one]_efd1cad3</t>
+    <t>delete-playlist-songs[one]_386a2921</t>
   </si>
   <si>
     <t>Delete selected track from playlist?</t>
@@ -691,7 +691,7 @@
     <t>delete-playlist-songs[one]</t>
   </si>
   <si>
-    <t>delete-playlist-songs[two]_bcf709b0</t>
+    <t>delete-playlist-songs[two]_41f4b0fd</t>
   </si>
   <si>
     <t>Delete {{ n }} tracks from playlist?</t>
@@ -700,31 +700,31 @@
     <t>delete-playlist-songs[two]</t>
   </si>
   <si>
-    <t>delete-playlist-songs[few]_c8c6e968</t>
+    <t>delete-playlist-songs[few]_3ea940a5</t>
   </si>
   <si>
     <t>delete-playlist-songs[few]</t>
   </si>
   <si>
-    <t>delete-playlist-songs[many]_659e37b1</t>
+    <t>delete-playlist-songs[many]_88b3fe7b</t>
   </si>
   <si>
     <t>delete-playlist-songs[many]</t>
   </si>
   <si>
-    <t>delete-playlist-songs[other]_ab6328de</t>
+    <t>delete-playlist-songs[other]_d3b984da</t>
   </si>
   <si>
     <t>delete-playlist-songs[other]</t>
   </si>
   <si>
-    <t>delete-playlist-hint_72363916</t>
+    <t>delete-playlist-hint_266625a4</t>
   </si>
   <si>
     <t>delete-playlist-hint</t>
   </si>
   <si>
-    <t>delete-playlist-hint[zero]_7bc0e12d</t>
+    <t>delete-playlist-hint[zero]_acf11f5b</t>
   </si>
   <si>
     <t>Nothing deleted</t>
@@ -733,7 +733,7 @@
     <t>delete-playlist-hint[zero]</t>
   </si>
   <si>
-    <t>delete-playlist-hint[one]_2d6768ad</t>
+    <t>delete-playlist-hint[one]_3f522ed9</t>
   </si>
   <si>
     <t>Track deleted from playlist</t>
@@ -742,7 +742,7 @@
     <t>delete-playlist-hint[one]</t>
   </si>
   <si>
-    <t>delete-playlist-hint[two]_08b78d1a</t>
+    <t>delete-playlist-hint[two]_00406c9c</t>
   </si>
   <si>
     <t>{{ n }} track deleted from playlist</t>
@@ -751,37 +751,37 @@
     <t>delete-playlist-hint[two]</t>
   </si>
   <si>
-    <t>delete-playlist-hint[few]_648cde53</t>
+    <t>delete-playlist-hint[few]_caac3584</t>
   </si>
   <si>
     <t>delete-playlist-hint[few]</t>
   </si>
   <si>
-    <t>delete-playlist-hint[many]_e876a032</t>
+    <t>delete-playlist-hint[many]_8dc8ce7d</t>
   </si>
   <si>
     <t>delete-playlist-hint[many]</t>
   </si>
   <si>
-    <t>delete-playlist-hint[other]_3d372886</t>
+    <t>delete-playlist-hint[other]_9b20ed05</t>
   </si>
   <si>
     <t>delete-playlist-hint[other]</t>
   </si>
   <si>
-    <t>delete-album-songs_6dd82c0c</t>
+    <t>delete-album-songs_3fde1179</t>
   </si>
   <si>
     <t>delete-album-songs</t>
   </si>
   <si>
-    <t>delete-album-songs[zero]_34623dbc</t>
+    <t>delete-album-songs[zero]_0b2204b8</t>
   </si>
   <si>
     <t>delete-album-songs[zero]</t>
   </si>
   <si>
-    <t>delete-album-songs[one]_d0c43861</t>
+    <t>delete-album-songs[one]_2a8b80e0</t>
   </si>
   <si>
     <t>Delete selected track?</t>
@@ -790,7 +790,7 @@
     <t>delete-album-songs[one]</t>
   </si>
   <si>
-    <t>delete-album-songs[two]_eab167b8</t>
+    <t>delete-album-songs[two]_90c2d311</t>
   </si>
   <si>
     <t>Delete {{ n }} tracks?</t>
@@ -799,37 +799,37 @@
     <t>delete-album-songs[two]</t>
   </si>
   <si>
-    <t>delete-album-songs[few]_faa45fb3</t>
+    <t>delete-album-songs[few]_609f71ed</t>
   </si>
   <si>
     <t>delete-album-songs[few]</t>
   </si>
   <si>
-    <t>delete-album-songs[many]_3cb31684</t>
+    <t>delete-album-songs[many]_9d39e6a9</t>
   </si>
   <si>
     <t>delete-album-songs[many]</t>
   </si>
   <si>
-    <t>delete-album-songs[other]_1aaf1691</t>
+    <t>delete-album-songs[other]_c3aef537</t>
   </si>
   <si>
     <t>delete-album-songs[other]</t>
   </si>
   <si>
-    <t>delete-album-songs-hint_f15e0dcb</t>
+    <t>delete-album-songs-hint_4414add1</t>
   </si>
   <si>
     <t>delete-album-songs-hint</t>
   </si>
   <si>
-    <t>delete-album-songs-hint[zero]_1180a115</t>
+    <t>delete-album-songs-hint[zero]_0e746e31</t>
   </si>
   <si>
     <t>delete-album-songs-hint[zero]</t>
   </si>
   <si>
-    <t>delete-album-songs-hint[one]_29fb86e2</t>
+    <t>delete-album-songs-hint[one]_76ce71e5</t>
   </si>
   <si>
     <t>Track deleted</t>
@@ -838,7 +838,7 @@
     <t>delete-album-songs-hint[one]</t>
   </si>
   <si>
-    <t>delete-album-songs-hint[two]_8934c429</t>
+    <t>delete-album-songs-hint[two]_7cd1b719</t>
   </si>
   <si>
     <t>{{ n }} track deleted</t>
@@ -847,25 +847,25 @@
     <t>delete-album-songs-hint[two]</t>
   </si>
   <si>
-    <t>delete-album-songs-hint[few]_fae8b7b8</t>
+    <t>delete-album-songs-hint[few]_2e39136e</t>
   </si>
   <si>
     <t>delete-album-songs-hint[few]</t>
   </si>
   <si>
-    <t>delete-album-songs-hint[many]_f8a1ee1d</t>
+    <t>delete-album-songs-hint[many]_e54f96c2</t>
   </si>
   <si>
     <t>delete-album-songs-hint[many]</t>
   </si>
   <si>
-    <t>delete-album-songs-hint[other]_8f08d172</t>
+    <t>delete-album-songs-hint[other]_5c705ef1</t>
   </si>
   <si>
     <t>delete-album-songs-hint[other]</t>
   </si>
   <si>
-    <t>library_658d8074</t>
+    <t>library_8519b8c9</t>
   </si>
   <si>
     <t>Library</t>
@@ -874,7 +874,7 @@
     <t>library</t>
   </si>
   <si>
-    <t>rate_f425e839</t>
+    <t>rate_65fd4d48</t>
   </si>
   <si>
     <t>Rate</t>
@@ -883,7 +883,7 @@
     <t>rate</t>
   </si>
   <si>
-    <t>gridview_20b437d4</t>
+    <t>gridview_08478cb8</t>
   </si>
   <si>
     <t>Grid View</t>
@@ -892,7 +892,7 @@
     <t>gridview</t>
   </si>
   <si>
-    <t>confirmation-title_dc68daf4</t>
+    <t>confirmation-title_5118f551</t>
   </si>
   <si>
     <t>Confirmation</t>
@@ -901,7 +901,7 @@
     <t>confirmation-title</t>
   </si>
   <si>
-    <t>options_0f10292f</t>
+    <t>options_372cbe4c</t>
   </si>
   <si>
     <t>Options</t>
@@ -910,7 +910,7 @@
     <t>options</t>
   </si>
   <si>
-    <t>opt-player_b2863d8f</t>
+    <t>opt-player_078269ae</t>
   </si>
   <si>
     <t>Player</t>
@@ -919,13 +919,13 @@
     <t>opt-player</t>
   </si>
   <si>
-    <t>opt-delete_bf66524c</t>
+    <t>opt-delete_7067d377</t>
   </si>
   <si>
     <t>opt-delete</t>
   </si>
   <si>
-    <t>opt-mulselect_f79a1170</t>
+    <t>opt-mulselect_e756f9e2</t>
   </si>
   <si>
     <t>Select Multiple</t>
@@ -934,7 +934,7 @@
     <t>opt-mulselect</t>
   </si>
   <si>
-    <t>opt-selectall_65b9d608</t>
+    <t>opt-selectall_32d0630b</t>
   </si>
   <si>
     <t>Select All</t>
@@ -943,7 +943,7 @@
     <t>opt-selectall</t>
   </si>
   <si>
-    <t>opt-deselectall_ffe081e7</t>
+    <t>opt-deselectall_fefba6df</t>
   </si>
   <si>
     <t>Deselect All</t>
@@ -952,19 +952,19 @@
     <t>opt-deselectall</t>
   </si>
   <si>
-    <t>opt-cancel_8ef97ac6</t>
+    <t>opt-cancel_e703d59c</t>
   </si>
   <si>
     <t>opt-cancel</t>
   </si>
   <si>
-    <t>opt-library_dbc5ab68</t>
+    <t>opt-library_de9e41fd</t>
   </si>
   <si>
     <t>opt-library</t>
   </si>
   <si>
-    <t>opt-shuffleall_abea6834</t>
+    <t>opt-shuffleall_322ed43b</t>
   </si>
   <si>
     <t>Shuffle All</t>
@@ -973,7 +973,7 @@
     <t>opt-shuffleall</t>
   </si>
   <si>
-    <t>opt-repeatall_375c70f4</t>
+    <t>opt-repeatall_9206087e</t>
   </si>
   <si>
     <t>Repeat All</t>
@@ -982,7 +982,7 @@
     <t>opt-repeatall</t>
   </si>
   <si>
-    <t>opt-back_c911f00a</t>
+    <t>opt-back_79f57101</t>
   </si>
   <si>
     <t>Back</t>
@@ -991,13 +991,13 @@
     <t>opt-back</t>
   </si>
   <si>
-    <t>opt-done_be0c6480</t>
+    <t>opt-done_3999e70f</t>
   </si>
   <si>
     <t>opt-done</t>
   </si>
   <si>
-    <t>opt-ok_63b3395f</t>
+    <t>opt-ok_037ce609</t>
   </si>
   <si>
     <t>OK</t>
@@ -1006,7 +1006,7 @@
     <t>opt-ok</t>
   </si>
   <si>
-    <t>opt-play_b93d0382</t>
+    <t>opt-play_2d451a01</t>
   </si>
   <si>
     <t>Play</t>
@@ -1015,7 +1015,7 @@
     <t>opt-play</t>
   </si>
   <si>
-    <t>opt-pause_8a1cf252</t>
+    <t>opt-pause_d817bf79</t>
   </si>
   <si>
     <t>Pause</t>
@@ -1024,7 +1024,7 @@
     <t>opt-pause</t>
   </si>
   <si>
-    <t>opt-setring_0af08990</t>
+    <t>opt-setring_367fb9dc</t>
   </si>
   <si>
     <t>Save as ringtone</t>
@@ -1033,7 +1033,7 @@
     <t>opt-setring</t>
   </si>
   <si>
-    <t>opt-shuffleoff_c938554b</t>
+    <t>opt-shuffleoff_a5eba62c</t>
   </si>
   <si>
     <t>Shuffle Off</t>
@@ -1042,7 +1042,7 @@
     <t>opt-shuffleoff</t>
   </si>
   <si>
-    <t>opt-shuffleon_1ed4a556</t>
+    <t>opt-shuffleon_a4163e74</t>
   </si>
   <si>
     <t>Shuffle On</t>
@@ -1051,7 +1051,7 @@
     <t>opt-shuffleon</t>
   </si>
   <si>
-    <t>opt-repeatoff_92fd2052</t>
+    <t>opt-repeatoff_550f1aed</t>
   </si>
   <si>
     <t>Repeat Off</t>
@@ -1060,7 +1060,7 @@
     <t>opt-repeatoff</t>
   </si>
   <si>
-    <t>opt-repeatone_372067bb</t>
+    <t>opt-repeatone_88610ffb</t>
   </si>
   <si>
     <t>Repeat One</t>
@@ -1069,13 +1069,13 @@
     <t>opt-repeatone</t>
   </si>
   <si>
-    <t>opt-share_e4c6e6a5</t>
+    <t>opt-share_68ea1b0f</t>
   </si>
   <si>
     <t>opt-share</t>
   </si>
   <si>
-    <t>byteUnit-B_6e8070ee</t>
+    <t>byteUnit-B_e6f53064</t>
   </si>
   <si>
     <t>Bytes</t>
@@ -1084,7 +1084,7 @@
     <t>byteUnit-B</t>
   </si>
   <si>
-    <t>byteUnit-KB_1274a7aa</t>
+    <t>byteUnit-KB_bf9e6af4</t>
   </si>
   <si>
     <t>KB</t>
@@ -1093,7 +1093,7 @@
     <t>byteUnit-KB</t>
   </si>
   <si>
-    <t>byteUnit-MB_c53d2719</t>
+    <t>byteUnit-MB_6664474e</t>
   </si>
   <si>
     <t>MB</t>
@@ -1102,7 +1102,7 @@
     <t>byteUnit-MB</t>
   </si>
   <si>
-    <t>byteUnit-GB_6174c664</t>
+    <t>byteUnit-GB_0d29ca00</t>
   </si>
   <si>
     <t>GB</t>
@@ -1111,7 +1111,7 @@
     <t>byteUnit-GB</t>
   </si>
   <si>
-    <t>byteUnit-TB_7ce0c6c2</t>
+    <t>byteUnit-TB_12b0ddfe</t>
   </si>
   <si>
     <t>TB</t>
@@ -1120,7 +1120,7 @@
     <t>byteUnit-TB</t>
   </si>
   <si>
-    <t>byteUnit-PB_4121c5ba</t>
+    <t>byteUnit-PB_9f18ab81</t>
   </si>
   <si>
     <t>PB</t>
@@ -1129,7 +1129,7 @@
     <t>byteUnit-PB</t>
   </si>
   <si>
-    <t>byteUnit-EB_ffd15781</t>
+    <t>byteUnit-EB_2f63e3a0</t>
   </si>
   <si>
     <t>EB</t>
@@ -1138,7 +1138,7 @@
     <t>byteUnit-EB</t>
   </si>
   <si>
-    <t>byteUnit-ZB_51295833</t>
+    <t>byteUnit-ZB_fb42edfb</t>
   </si>
   <si>
     <t>ZB</t>
@@ -1147,7 +1147,7 @@
     <t>byteUnit-ZB</t>
   </si>
   <si>
-    <t>byteUnit-YB_efca39c5</t>
+    <t>byteUnit-YB_2d502328</t>
   </si>
   <si>
     <t>YB</t>
@@ -1156,7 +1156,7 @@
     <t>byteUnit-YB</t>
   </si>
   <si>
-    <t>opt-fileinfo_b2539a6a</t>
+    <t>opt-fileinfo_a14c7a23</t>
   </si>
   <si>
     <t>File Info</t>
@@ -1165,7 +1165,7 @@
     <t>opt-fileinfo</t>
   </si>
   <si>
-    <t>info-view.ariaLabel_332e9a55</t>
+    <t>info-view.ariaLabel_e43a47bc</t>
   </si>
   <si>
     <t>Info</t>
@@ -1174,7 +1174,7 @@
     <t>info-view.ariaLabel</t>
   </si>
   <si>
-    <t>name-label_6dd02496</t>
+    <t>name-label_282e0dae</t>
   </si>
   <si>
     <t>Name</t>
@@ -1183,7 +1183,7 @@
     <t>name-label</t>
   </si>
   <si>
-    <t>size-label_3d5ca8c7</t>
+    <t>size-label_632d7994</t>
   </si>
   <si>
     <t>Size</t>
@@ -1192,7 +1192,7 @@
     <t>size-label</t>
   </si>
   <si>
-    <t>music-type-label_80de430c</t>
+    <t>music-type-label_ca330206</t>
   </si>
   <si>
     <t>Music Type</t>
@@ -1201,19 +1201,19 @@
     <t>music-type-label</t>
   </si>
   <si>
-    <t>playlists-recently-added_ff1567c9</t>
+    <t>playlists-recently-added_8836a3a8</t>
   </si>
   <si>
     <t>Recently Added</t>
   </si>
   <si>
-    <t>playlists-most-played_d0b14ea2</t>
+    <t>playlists-most-played_8d52cfbb</t>
   </si>
   <si>
     <t>Most Played</t>
   </si>
   <si>
-    <t>playlists-least-played_8645a153</t>
+    <t>playlists-least-played_29bb64c2</t>
   </si>
   <si>
     <t>Least Played</t>
@@ -1222,7 +1222,7 @@
     <t>lockscreen</t>
   </si>
   <si>
-    <t>airplaneMode_efb41bbd</t>
+    <t>airplaneMode_b5a88d9b</t>
   </si>
   <si>
     <t>Airplane mode</t>
@@ -1231,10 +1231,10 @@
     <t>airplaneMode</t>
   </si>
   <si>
-    <t>shared\lockscreen\lockscreen.properties</t>
-  </si>
-  <si>
-    <t>searching_f143b586</t>
+    <t>shared/lockscreen/lockscreen.properties</t>
+  </si>
+  <si>
+    <t>searching_4c74f28a</t>
   </si>
   <si>
     <t>Searching…</t>
@@ -1243,7 +1243,7 @@
     <t>searching</t>
   </si>
   <si>
-    <t>noNetwork_46e95b36</t>
+    <t>noNetwork_061bcc46</t>
   </si>
   <si>
     <t>No network</t>
@@ -1252,7 +1252,7 @@
     <t>noNetwork</t>
   </si>
   <si>
-    <t>roaming_054338e3</t>
+    <t>roaming_f5ea673f</t>
   </si>
   <si>
     <t>{{operator}} (Roaming)</t>
@@ -1261,7 +1261,7 @@
     <t>roaming</t>
   </si>
   <si>
-    <t>operator-info_eb13acd0</t>
+    <t>operator-info_90e04860</t>
   </si>
   <si>
     <t>{{carrier}} {{region}}</t>
@@ -1270,7 +1270,7 @@
     <t>operator-info</t>
   </si>
   <si>
-    <t>emergencyCallsOnly_50ecc726</t>
+    <t>emergencyCallsOnly_a4f77def</t>
   </si>
   <si>
     <t>Emergency calls only</t>
@@ -1279,7 +1279,7 @@
     <t>emergencyCallsOnly</t>
   </si>
   <si>
-    <t>emergencyCallsOnly-unknownSIMState_43b9bc63</t>
+    <t>emergencyCallsOnly-unknownSIMState_9c1fbb99</t>
   </si>
   <si>
     <t>(unknown SIM state)</t>
@@ -1288,7 +1288,7 @@
     <t>emergencyCallsOnly-unknownSIMState</t>
   </si>
   <si>
-    <t>emergencyCallsOnly-noSIM_ff2f1707</t>
+    <t>emergencyCallsOnly-noSIM_cabf3010</t>
   </si>
   <si>
     <t>(no SIM)</t>
@@ -1297,7 +1297,7 @@
     <t>emergencyCallsOnly-noSIM</t>
   </si>
   <si>
-    <t>emergencyCallsOnly-pinRequired_4501b5e8</t>
+    <t>emergencyCallsOnly-pinRequired_61efbe57</t>
   </si>
   <si>
     <t>(SIM PIN required)</t>
@@ -1306,7 +1306,7 @@
     <t>emergencyCallsOnly-pinRequired</t>
   </si>
   <si>
-    <t>emergencyCallsOnly-pukRequired_1e7a4e75</t>
+    <t>emergencyCallsOnly-pukRequired_42347143</t>
   </si>
   <si>
     <t>(SIM PUK required)</t>
@@ -1315,7 +1315,7 @@
     <t>emergencyCallsOnly-pukRequired</t>
   </si>
   <si>
-    <t>emergencyCallsOnly-networkLocked_b0cd541f</t>
+    <t>emergencyCallsOnly-networkLocked_1e46b99a</t>
   </si>
   <si>
     <t>(network locked)</t>
@@ -1324,7 +1324,7 @@
     <t>emergencyCallsOnly-networkLocked</t>
   </si>
   <si>
-    <t>emergencyCallsOnly-serviceProviderLocked_ad79a97d</t>
+    <t>emergencyCallsOnly-serviceProviderLocked_a222b683</t>
   </si>
   <si>
     <t>(service provider locked)</t>
@@ -1333,7 +1333,7 @@
     <t>emergencyCallsOnly-serviceProviderLocked</t>
   </si>
   <si>
-    <t>emergencyCallsOnly-corporateLocked_1a3cedc8</t>
+    <t>emergencyCallsOnly-corporateLocked_25b0c568</t>
   </si>
   <si>
     <t>(corporate locked)</t>
@@ -1342,7 +1342,7 @@
     <t>emergencyCallsOnly-corporateLocked</t>
   </si>
   <si>
-    <t>emergencyCallsOnly-network1Locked_27deb4c4</t>
+    <t>emergencyCallsOnly-network1Locked_5893327e</t>
   </si>
   <si>
     <t>(network1 locked)</t>
@@ -1351,7 +1351,7 @@
     <t>emergencyCallsOnly-network1Locked</t>
   </si>
   <si>
-    <t>emergencyCallsOnly-network2Locked_c7effb04</t>
+    <t>emergencyCallsOnly-network2Locked_d1450632</t>
   </si>
   <si>
     <t>(network2 locked)</t>
@@ -1360,7 +1360,7 @@
     <t>emergencyCallsOnly-network2Locked</t>
   </si>
   <si>
-    <t>emergencyCallsOnly-hrpdNetworkLocked_ed7bc1ea</t>
+    <t>emergencyCallsOnly-hrpdNetworkLocked_c25bfed9</t>
   </si>
   <si>
     <t>(hrpd network locked)</t>
@@ -1369,7 +1369,7 @@
     <t>emergencyCallsOnly-hrpdNetworkLocked</t>
   </si>
   <si>
-    <t>emergencyCallsOnly-ruimCorporateLocked_6591d6dd</t>
+    <t>emergencyCallsOnly-ruimCorporateLocked_9470d646</t>
   </si>
   <si>
     <t>(ruim corporate locked)</t>
@@ -1378,7 +1378,7 @@
     <t>emergencyCallsOnly-ruimCorporateLocked</t>
   </si>
   <si>
-    <t>emergencyCallsOnly-ruimServiceProviderLocked_5d91900e</t>
+    <t>emergencyCallsOnly-ruimServiceProviderLocked_5c9cc55b</t>
   </si>
   <si>
     <t>(ruim service provider locked)</t>
@@ -1387,7 +1387,7 @@
     <t>emergencyCallsOnly-ruimServiceProviderLocked</t>
   </si>
   <si>
-    <t>lockscreen-sim-id_1d597df1</t>
+    <t>lockscreen-sim-id_a5c6da34</t>
   </si>
   <si>
     <t>SIM {{ n }}</t>
@@ -1396,7 +1396,7 @@
     <t>lockscreen-sim-id</t>
   </si>
   <si>
-    <t>charging-no-time_02b23a73</t>
+    <t>charging-no-time_a8014bda</t>
   </si>
   <si>
     <t>{{ level }}% Charged</t>
@@ -1405,7 +1405,7 @@
     <t>charging-no-time</t>
   </si>
   <si>
-    <t>charging-minutes_f9dd5093</t>
+    <t>charging-minutes_e4d82135</t>
   </si>
   <si>
     <t>{[ plural(minutes) ]}</t>
@@ -1414,7 +1414,7 @@
     <t>charging-minutes</t>
   </si>
   <si>
-    <t>charging-minutes[zero]_91e6b207</t>
+    <t>charging-minutes[zero]_623a6744</t>
   </si>
   <si>
     <t>{{ level }}% Charged ({{ minutes }} mins until fully charged)</t>
@@ -1423,7 +1423,7 @@
     <t>charging-minutes[zero]</t>
   </si>
   <si>
-    <t>charging-minutes[one]_6b730f15</t>
+    <t>charging-minutes[one]_ee50a01b</t>
   </si>
   <si>
     <t>{{ level }}% Charged ({{ minutes }} min until fully charged)</t>
@@ -1432,37 +1432,37 @@
     <t>charging-minutes[one]</t>
   </si>
   <si>
-    <t>charging-minutes[two]_c6f3d665</t>
+    <t>charging-minutes[two]_0dd42c9a</t>
   </si>
   <si>
     <t>charging-minutes[two]</t>
   </si>
   <si>
-    <t>charging-minutes[few]_270754e7</t>
+    <t>charging-minutes[few]_d065cd27</t>
   </si>
   <si>
     <t>charging-minutes[few]</t>
   </si>
   <si>
-    <t>charging-minutes[many]_582898a0</t>
+    <t>charging-minutes[many]_391cc9c7</t>
   </si>
   <si>
     <t>charging-minutes[many]</t>
   </si>
   <si>
-    <t>charging-minutes[other]_7a28629e</t>
+    <t>charging-minutes[other]_c44f152c</t>
   </si>
   <si>
     <t>charging-minutes[other]</t>
   </si>
   <si>
-    <t>charging-hours_82efc616</t>
+    <t>charging-hours_890686b1</t>
   </si>
   <si>
     <t>charging-hours</t>
   </si>
   <si>
-    <t>charging-hours[zero]_7ec42087</t>
+    <t>charging-hours[zero]_934382b2</t>
   </si>
   <si>
     <t>{{ level }}% Charged ({{ hours }}h {{ minutes }} mins until fully charged)</t>
@@ -1471,7 +1471,7 @@
     <t>charging-hours[zero]</t>
   </si>
   <si>
-    <t>charging-hours[one]_e9970e87</t>
+    <t>charging-hours[one]_ea0ba63b</t>
   </si>
   <si>
     <t>{{ level }}% Charged ({{ hours }}h {{ minutes }} min until fully charged)</t>
@@ -1480,25 +1480,25 @@
     <t>charging-hours[one]</t>
   </si>
   <si>
-    <t>charging-hours[two]_db54c1a7</t>
+    <t>charging-hours[two]_6c97ab48</t>
   </si>
   <si>
     <t>charging-hours[two]</t>
   </si>
   <si>
-    <t>charging-hours[few]_721506df</t>
+    <t>charging-hours[few]_d9bc6482</t>
   </si>
   <si>
     <t>charging-hours[few]</t>
   </si>
   <si>
-    <t>charging-hours[many]_f8651dd8</t>
+    <t>charging-hours[many]_d3a49d52</t>
   </si>
   <si>
     <t>charging-hours[many]</t>
   </si>
   <si>
-    <t>charging-hours[other]_6779c8f4</t>
+    <t>charging-hours[other]_826be02b</t>
   </si>
   <si>
     <t>charging-hours[other]</t>
